--- a/feedback_forms/testing_versions/energy_operator_feedback_v003_test_01.xlsx
+++ b/feedback_forms/testing_versions/energy_operator_feedback_v003_test_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\testing_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F48B6A-AE00-4466-AD5C-379C9F8F6D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB86588-1145-4CAC-9BDA-7726CA824DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ImwiEQC5shITFWEpaxOMMPEfUfqEtFoRIHuURhnPc7IZG4ilyBy1yiAf/tR93xK9X8IdjfjaGqNlV6SqJPVTiw==" workbookSaltValue="G2GrvIC9Gcp2+oZ7sQfuvQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="4673" yWindow="1413" windowWidth="19200" windowHeight="11387" tabRatio="704" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="207">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2525,9 +2525,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
@@ -3126,8 +3124,9 @@
         <v>134</v>
       </c>
       <c r="C29" s="39"/>
-      <c r="D29" s="43" t="s">
-        <v>3</v>
+      <c r="D29" s="43" t="str">
+        <f t="shared" ref="D29:D30" si="0">LEFT(B29, 50)</f>
+        <v>Q1.  Facility Name</v>
       </c>
       <c r="E29" s="44"/>
       <c r="F29" s="39"/>
@@ -3137,8 +3136,9 @@
         <v>166</v>
       </c>
       <c r="C30" s="39"/>
-      <c r="D30" s="43" t="s">
-        <v>4</v>
+      <c r="D30" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>Q2.  Contact Name</v>
       </c>
       <c r="E30" s="44"/>
       <c r="F30" s="39"/>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="59" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="39"/>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="C38" s="39"/>
       <c r="D38" s="59" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="E38" s="34"/>
       <c r="F38" s="39"/>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C39" s="39"/>
       <c r="D39" s="59" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E39" s="34"/>
       <c r="F39" s="39"/>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="C41" s="39"/>
       <c r="D41" s="59" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="E41" s="34"/>
       <c r="F41" s="39"/>
@@ -3353,8 +3353,9 @@
         <v>176</v>
       </c>
       <c r="C43" s="39"/>
-      <c r="D43" s="57" t="s">
-        <v>178</v>
+      <c r="D43" s="57" t="str">
+        <f t="shared" ref="D43:D44" si="1">LEFT(B43, 50)</f>
+        <v>Q12.  If you answered 'Venting' to Q7 or Q10, plea</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
@@ -3364,8 +3365,9 @@
         <v>177</v>
       </c>
       <c r="C44" s="39"/>
-      <c r="D44" s="57" t="s">
-        <v>142</v>
+      <c r="D44" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>Q13.  If you answered a 'Unintentional-leak' or 'U</v>
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
@@ -3481,8 +3483,9 @@
         <v>185</v>
       </c>
       <c r="C48" s="35"/>
-      <c r="D48" s="57" t="s">
-        <v>143</v>
+      <c r="D48" s="57" t="str">
+        <f t="shared" ref="D48:D49" si="2">LEFT(B48, 50)</f>
+        <v>Q14.  What type of equipment is at the source of t</v>
       </c>
       <c r="E48" s="36"/>
       <c r="F48" s="39"/>
@@ -3492,8 +3495,9 @@
         <v>186</v>
       </c>
       <c r="C49" s="35"/>
-      <c r="D49" s="57" t="s">
-        <v>179</v>
+      <c r="D49" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Q15.  If your source is a component, what type of </v>
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="39"/>
@@ -3525,8 +3529,9 @@
         <v>182</v>
       </c>
       <c r="C52" s="33"/>
-      <c r="D52" s="57" t="s">
-        <v>120</v>
+      <c r="D52" s="57" t="str">
+        <f t="shared" ref="D52" si="3">LEFT(B52, 50)</f>
+        <v>Q18.  Repair/Mitigation actions taken (if applicab</v>
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="39"/>
@@ -3575,8 +3580,9 @@
         <v>184</v>
       </c>
       <c r="C56" s="33"/>
-      <c r="D56" s="57" t="s">
-        <v>183</v>
+      <c r="D56" s="57" t="str">
+        <f t="shared" ref="D56" si="4">LEFT(B56, 50)</f>
+        <v>Q19.  Additional notes or comments.</v>
       </c>
       <c r="F56" s="39"/>
     </row>
@@ -6147,14 +6153,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6393,21 +6397,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6432,9 +6435,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>